--- a/iselUssSyncV2/OutputWSL/20220426_1315_D50L474W90Q25U0.36H88G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220426_1315_D50L474W90Q25U0.36H88G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>89.050557768924307</v>
+        <v>89.051488535945268</v>
       </c>
       <c r="F2" s="0">
-        <v>88.940159362549778</v>
+        <v>88.941090129570782</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>89.746521739130444</v>
+        <v>89.748796947403889</v>
       </c>
       <c r="F3" s="0">
-        <v>90.670988142292487</v>
+        <v>90.673263350565989</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>88.653095238095275</v>
+        <v>88.655846171735007</v>
       </c>
       <c r="F4" s="0">
-        <v>92.497261904761913</v>
+        <v>92.500012838401659</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>87.79788844621514</v>
+        <v>87.800694536419101</v>
       </c>
       <c r="F5" s="0">
-        <v>93.020159362549819</v>
+        <v>93.022965452753724</v>
       </c>
     </row>
     <row r="6">
@@ -202,7 +202,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>86.454023904382467</v>
+        <v>86.456878256580097</v>
       </c>
       <c r="F6" s="0"/>
     </row>
@@ -220,10 +220,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>84.226269841269854</v>
+        <v>84.229165560890621</v>
       </c>
       <c r="F7" s="0">
-        <v>93.423531746031756</v>
+        <v>93.426427465652523</v>
       </c>
     </row>
     <row r="8">
@@ -240,10 +240,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>79.877609561753005</v>
+        <v>79.880539754226419</v>
       </c>
       <c r="F8" s="0">
-        <v>88.624063745019924</v>
+        <v>88.626993937493381</v>
       </c>
     </row>
     <row r="9">
@@ -260,7 +260,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>77.424285714285716</v>
+        <v>77.427227765420454</v>
       </c>
       <c r="F9" s="0"/>
     </row>
@@ -278,7 +278,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>74.844563492063514</v>
+        <v>74.847516298728252</v>
       </c>
       <c r="F10" s="0"/>
     </row>
@@ -296,10 +296,10 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>72.098127490039829</v>
+        <v>72.101089949103311</v>
       </c>
       <c r="F11" s="0">
-        <v>55.093386454183261</v>
+        <v>55.096348913246757</v>
       </c>
     </row>
     <row r="12">
@@ -316,10 +316,10 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>70.606746031746027</v>
+        <v>70.609712903334668</v>
       </c>
       <c r="F12" s="0">
-        <v>55.60638888888888</v>
+        <v>55.60935576047752</v>
       </c>
     </row>
     <row r="13">
@@ -336,10 +336,10 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>69.078412698412691</v>
+        <v>69.081383706743637</v>
       </c>
       <c r="F13" s="0">
-        <v>55.934563492063496</v>
+        <v>55.937534500394435</v>
       </c>
     </row>
     <row r="14">
@@ -356,10 +356,10 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>67.914365079365069</v>
+        <v>67.917339948655496</v>
       </c>
       <c r="F14" s="0">
-        <v>56.615833333333327</v>
+        <v>56.618808202623768</v>
       </c>
     </row>
     <row r="15">
@@ -376,10 +376,10 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>66.753373015873009</v>
+        <v>66.756351470340121</v>
       </c>
       <c r="F15" s="0">
-        <v>56.351626984126973</v>
+        <v>56.354605438594106</v>
       </c>
     </row>
     <row r="16">
@@ -396,10 +396,10 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>64.215238095238092</v>
+        <v>64.218222892710088</v>
       </c>
       <c r="F16" s="0">
-        <v>59.357539682539688</v>
+        <v>59.360524480011669</v>
       </c>
     </row>
     <row r="17">
@@ -416,10 +416,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>61.936746031746047</v>
+        <v>61.939736069091637</v>
       </c>
       <c r="F17" s="0">
-        <v>61.822261904761909</v>
+        <v>61.825251942107506</v>
       </c>
     </row>
     <row r="18">
@@ -436,10 +436,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>60.993545816733068</v>
+        <v>60.99653999082097</v>
       </c>
       <c r="F18" s="0">
-        <v>65.182390438246998</v>
+        <v>65.185384612334914</v>
       </c>
     </row>
     <row r="19">
@@ -456,10 +456,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>60.982420634920643</v>
+        <v>60.985419773099309</v>
       </c>
       <c r="F19" s="0">
-        <v>68.579444444444462</v>
+        <v>68.582443582623128</v>
       </c>
     </row>
     <row r="20">
@@ -476,10 +476,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>71.995039682539669</v>
+        <v>71.998038820718378</v>
       </c>
       <c r="F20" s="0">
-        <v>70.31527777777778</v>
+        <v>70.318276915956474</v>
       </c>
     </row>
     <row r="21">
@@ -496,10 +496,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>74.655378486055781</v>
+        <v>74.658370729663929</v>
       </c>
       <c r="F21" s="0">
-        <v>71.791872509960157</v>
+        <v>71.794864753568334</v>
       </c>
     </row>
     <row r="22">
@@ -516,10 +516,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>73.718769841269847</v>
+        <v>73.721748295736958</v>
       </c>
       <c r="F22" s="0">
-        <v>72.030992063492064</v>
+        <v>72.033970517959176</v>
       </c>
     </row>
     <row r="23">
@@ -536,10 +536,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>70.612629482071711</v>
+        <v>70.615587252827254</v>
       </c>
       <c r="F23" s="0">
-        <v>72.490597609561732</v>
+        <v>72.493555380317275</v>
       </c>
     </row>
     <row r="24">
@@ -556,10 +556,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>68.757250996015941</v>
+        <v>68.760146715636722</v>
       </c>
       <c r="F24" s="0">
-        <v>72.452749003984067</v>
+        <v>72.455644723604863</v>
       </c>
     </row>
     <row r="25">
@@ -576,10 +576,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>74.602031872509968</v>
+        <v>74.60483796271393</v>
       </c>
       <c r="F25" s="0">
-        <v>72.313505976095627</v>
+        <v>72.316312066299602</v>
       </c>
     </row>
     <row r="26">
@@ -596,10 +596,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>67.312142857142845</v>
+        <v>67.314831739647872</v>
       </c>
       <c r="F26" s="0">
-        <v>72.132380952380956</v>
+        <v>72.135069834885982</v>
       </c>
     </row>
     <row r="27">
@@ -616,10 +616,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>70.711825396825404</v>
+        <v>70.714369493349395</v>
       </c>
       <c r="F27" s="0">
-        <v>72.09809523809524</v>
+        <v>72.100639334619217</v>
       </c>
     </row>
     <row r="28">
@@ -636,10 +636,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>73.516693227091636</v>
+        <v>73.519064959352463</v>
       </c>
       <c r="F28" s="0">
-        <v>71.66366533864543</v>
+        <v>71.66603707090627</v>
       </c>
     </row>
     <row r="29">
@@ -656,10 +656,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>66.950753968253977</v>
+        <v>66.952925757969567</v>
       </c>
       <c r="F29" s="0">
-        <v>71.453888888888898</v>
+        <v>71.456060678604501</v>
       </c>
     </row>
     <row r="30">
@@ -676,10 +676,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>70.943809523809534</v>
+        <v>70.945498693588334</v>
       </c>
       <c r="F30" s="0">
-        <v>71.084325396825392</v>
+        <v>71.086014566604206</v>
       </c>
     </row>
   </sheetData>
